--- a/biology/Médecine/Georges_Brouardel/Georges_Brouardel.xlsx
+++ b/biology/Médecine/Georges_Brouardel/Georges_Brouardel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Brouardel, né le 6 mai 1869 à Paris où il est mort le 15 juillet 1959[1], est un médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Brouardel, né le 6 mai 1869 à Paris où il est mort le 15 juillet 1959, est un médecin français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est président de l'Académie nationale de médecine en 1945 et de la Croix-Rouge française de 1947 à 1955.
 </t>
@@ -542,9 +556,11 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Grand-croix de la Légion d'honneur Il reçoit la grand-croix de la Légion d'honneur le 25 mars 1958 des mains du président René Coty[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grand-croix de la Légion d'honneur Il reçoit la grand-croix de la Légion d'honneur le 25 mars 1958 des mains du président René Coty.
 Grand officier de l'ordre de Léopold II
 Commandeur de l'ordre de la Santé publique</t>
         </is>
